--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.03759266666667</v>
+        <v>12.54115633333333</v>
       </c>
       <c r="H2">
-        <v>33.112778</v>
+        <v>37.623469</v>
       </c>
       <c r="I2">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978054</v>
       </c>
       <c r="J2">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978055</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.252434</v>
+        <v>1.919494</v>
       </c>
       <c r="N2">
-        <v>6.757302</v>
+        <v>5.758482</v>
       </c>
       <c r="O2">
-        <v>0.03216586934228027</v>
+        <v>0.02668107762885771</v>
       </c>
       <c r="P2">
-        <v>0.03216586934228026</v>
+        <v>0.02668107762885771</v>
       </c>
       <c r="Q2">
-        <v>24.86144900055067</v>
+        <v>24.07267433489533</v>
       </c>
       <c r="R2">
-        <v>223.753041004956</v>
+        <v>216.654069014058</v>
       </c>
       <c r="S2">
-        <v>0.0006006571863508294</v>
+        <v>0.0005648710705024586</v>
       </c>
       <c r="T2">
-        <v>0.0006006571863508292</v>
+        <v>0.0005648710705024587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.03759266666667</v>
+        <v>12.54115633333333</v>
       </c>
       <c r="H3">
-        <v>33.112778</v>
+        <v>37.623469</v>
       </c>
       <c r="I3">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978054</v>
       </c>
       <c r="J3">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>191.104072</v>
       </c>
       <c r="O3">
-        <v>0.9096868262998636</v>
+        <v>0.8854525515965513</v>
       </c>
       <c r="P3">
-        <v>0.9096868262998633</v>
+        <v>0.8854525515965515</v>
       </c>
       <c r="Q3">
-        <v>703.1096345591129</v>
+        <v>798.8886809628631</v>
       </c>
       <c r="R3">
-        <v>6327.986711032016</v>
+        <v>7189.998128665767</v>
       </c>
       <c r="S3">
-        <v>0.01698725825598831</v>
+        <v>0.01874611429331878</v>
       </c>
       <c r="T3">
-        <v>0.0169872582559883</v>
+        <v>0.01874611429331878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.03759266666667</v>
+        <v>12.54115633333333</v>
       </c>
       <c r="H4">
-        <v>33.112778</v>
+        <v>37.623469</v>
       </c>
       <c r="I4">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978054</v>
       </c>
       <c r="J4">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978055</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.15646</v>
+        <v>1.192498666666667</v>
       </c>
       <c r="N4">
-        <v>0.46938</v>
+        <v>3.577496</v>
       </c>
       <c r="O4">
-        <v>0.002234326030104843</v>
+        <v>0.01657580044409758</v>
       </c>
       <c r="P4">
-        <v>0.002234326030104842</v>
+        <v>0.01657580044409758</v>
       </c>
       <c r="Q4">
-        <v>1.726941748626667</v>
+        <v>14.95531220595822</v>
       </c>
       <c r="R4">
-        <v>15.54247573764</v>
+        <v>134.597809853624</v>
       </c>
       <c r="S4">
-        <v>4.172323068132108E-05</v>
+        <v>0.0003509299838461357</v>
       </c>
       <c r="T4">
-        <v>4.172323068132106E-05</v>
+        <v>0.0003509299838461358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.03759266666667</v>
+        <v>12.54115633333333</v>
       </c>
       <c r="H5">
-        <v>33.112778</v>
+        <v>37.623469</v>
       </c>
       <c r="I5">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978054</v>
       </c>
       <c r="J5">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978055</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.716833333333334</v>
+        <v>2.73403</v>
       </c>
       <c r="N5">
-        <v>11.1505</v>
+        <v>8.20209</v>
       </c>
       <c r="O5">
-        <v>0.05307821466335176</v>
+        <v>0.03800317514387951</v>
       </c>
       <c r="P5">
-        <v>0.05307821466335174</v>
+        <v>0.03800317514387951</v>
       </c>
       <c r="Q5">
-        <v>41.02489234322223</v>
+        <v>34.28789765002333</v>
       </c>
       <c r="R5">
-        <v>369.224031089</v>
+        <v>308.59107885021</v>
       </c>
       <c r="S5">
-        <v>0.0009911689541780022</v>
+        <v>0.0008045737329139017</v>
       </c>
       <c r="T5">
-        <v>0.000991168954178002</v>
+        <v>0.0008045737329139018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.03759266666667</v>
+        <v>12.54115633333333</v>
       </c>
       <c r="H6">
-        <v>33.112778</v>
+        <v>37.623469</v>
       </c>
       <c r="I6">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978054</v>
       </c>
       <c r="J6">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978055</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.198506</v>
+        <v>2.394766666666667</v>
       </c>
       <c r="N6">
-        <v>0.595518</v>
+        <v>7.1843</v>
       </c>
       <c r="O6">
-        <v>0.002834763664399794</v>
+        <v>0.03328739518661385</v>
       </c>
       <c r="P6">
-        <v>0.002834763664399794</v>
+        <v>0.03328739518661385</v>
       </c>
       <c r="Q6">
-        <v>2.191028369889333</v>
+        <v>30.03314314852222</v>
       </c>
       <c r="R6">
-        <v>19.719255329004</v>
+        <v>270.2982883367</v>
       </c>
       <c r="S6">
-        <v>5.293564891746338E-05</v>
+        <v>0.0007047348991992705</v>
       </c>
       <c r="T6">
-        <v>5.293564891746336E-05</v>
+        <v>0.0007047348991992706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1669.347351</v>
       </c>
       <c r="I7">
-        <v>0.9414179586876754</v>
+        <v>0.939363849412034</v>
       </c>
       <c r="J7">
-        <v>0.9414179586876756</v>
+        <v>0.9393638494120341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.252434</v>
+        <v>1.919494</v>
       </c>
       <c r="N7">
-        <v>6.757302</v>
+        <v>5.758482</v>
       </c>
       <c r="O7">
-        <v>0.03216586934228027</v>
+        <v>0.02668107762885771</v>
       </c>
       <c r="P7">
-        <v>0.03216586934228026</v>
+        <v>0.02668107762885771</v>
       </c>
       <c r="Q7">
-        <v>1253.364910400778</v>
+        <v>1068.100741386798</v>
       </c>
       <c r="R7">
-        <v>11280.284193607</v>
+        <v>9612.906672481182</v>
       </c>
       <c r="S7">
-        <v>0.03028152705562398</v>
+        <v>0.02506323978790508</v>
       </c>
       <c r="T7">
-        <v>0.03028152705562397</v>
+        <v>0.02506323978790509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1669.347351</v>
       </c>
       <c r="I8">
-        <v>0.9414179586876754</v>
+        <v>0.939363849412034</v>
       </c>
       <c r="J8">
-        <v>0.9414179586876756</v>
+        <v>0.9393638494120341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>191.104072</v>
       </c>
       <c r="O8">
-        <v>0.9096868262998636</v>
+        <v>0.8854525515965513</v>
       </c>
       <c r="P8">
-        <v>0.9096868262998633</v>
+        <v>0.8854525515965515</v>
       </c>
       <c r="Q8">
-        <v>35446.56403983481</v>
+        <v>35446.5640398348</v>
       </c>
       <c r="R8">
-        <v>319019.0763585133</v>
+        <v>319019.0763585132</v>
       </c>
       <c r="S8">
-        <v>0.8563955150602875</v>
+        <v>0.8317621173394442</v>
       </c>
       <c r="T8">
-        <v>0.8563955150602874</v>
+        <v>0.8317621173394443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>1669.347351</v>
       </c>
       <c r="I9">
-        <v>0.9414179586876754</v>
+        <v>0.939363849412034</v>
       </c>
       <c r="J9">
-        <v>0.9414179586876756</v>
+        <v>0.9393638494120341</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.15646</v>
+        <v>1.192498666666667</v>
       </c>
       <c r="N9">
-        <v>0.46938</v>
+        <v>3.577496</v>
       </c>
       <c r="O9">
-        <v>0.002234326030104843</v>
+        <v>0.01657580044409758</v>
       </c>
       <c r="P9">
-        <v>0.002234326030104842</v>
+        <v>0.01657580044409758</v>
       </c>
       <c r="Q9">
-        <v>87.06202884582001</v>
+        <v>663.564830090344</v>
       </c>
       <c r="R9">
-        <v>783.5582596123801</v>
+        <v>5972.083470813096</v>
       </c>
       <c r="S9">
-        <v>0.002103434650304038</v>
+        <v>0.01557070771225321</v>
       </c>
       <c r="T9">
-        <v>0.002103434650304038</v>
+        <v>0.01557070771225321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1669.347351</v>
       </c>
       <c r="I10">
-        <v>0.9414179586876754</v>
+        <v>0.939363849412034</v>
       </c>
       <c r="J10">
-        <v>0.9414179586876756</v>
+        <v>0.9393638494120341</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.716833333333334</v>
+        <v>2.73403</v>
       </c>
       <c r="N10">
-        <v>11.1505</v>
+        <v>8.20209</v>
       </c>
       <c r="O10">
-        <v>0.05307821466335176</v>
+        <v>0.03800317514387951</v>
       </c>
       <c r="P10">
-        <v>0.05307821466335174</v>
+        <v>0.03800317514387951</v>
       </c>
       <c r="Q10">
-        <v>2068.2286263695</v>
+        <v>1521.34857935151</v>
       </c>
       <c r="R10">
-        <v>18614.0576373255</v>
+        <v>13692.13721416359</v>
       </c>
       <c r="S10">
-        <v>0.04996878449915886</v>
+        <v>0.03569880889303438</v>
       </c>
       <c r="T10">
-        <v>0.04996878449915885</v>
+        <v>0.03569880889303439</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1669.347351</v>
       </c>
       <c r="I11">
-        <v>0.9414179586876754</v>
+        <v>0.939363849412034</v>
       </c>
       <c r="J11">
-        <v>0.9414179586876756</v>
+        <v>0.9393638494120341</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.198506</v>
+        <v>2.394766666666667</v>
       </c>
       <c r="N11">
-        <v>0.595518</v>
+        <v>7.1843</v>
       </c>
       <c r="O11">
-        <v>0.002834763664399794</v>
+        <v>0.03328739518661385</v>
       </c>
       <c r="P11">
-        <v>0.002834763664399794</v>
+        <v>0.03328739518661385</v>
       </c>
       <c r="Q11">
-        <v>110.458488419202</v>
+        <v>1332.5657970877</v>
       </c>
       <c r="R11">
-        <v>994.126395772818</v>
+        <v>11993.0921737893</v>
       </c>
       <c r="S11">
-        <v>0.002668697422301249</v>
+        <v>0.0312689756793972</v>
       </c>
       <c r="T11">
-        <v>0.002668697422301249</v>
+        <v>0.0312689756793972</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3432</v>
+        <v>1.750772333333333</v>
       </c>
       <c r="H12">
-        <v>1.0296</v>
+        <v>5.252317</v>
       </c>
       <c r="I12">
-        <v>0.0005806364563277943</v>
+        <v>0.002955548294066371</v>
       </c>
       <c r="J12">
-        <v>0.0005806364563277944</v>
+        <v>0.002955548294066372</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.252434</v>
+        <v>1.919494</v>
       </c>
       <c r="N12">
-        <v>6.757302</v>
+        <v>5.758482</v>
       </c>
       <c r="O12">
-        <v>0.03216586934228027</v>
+        <v>0.02668107762885771</v>
       </c>
       <c r="P12">
-        <v>0.03216586934228026</v>
+        <v>0.02668107762885771</v>
       </c>
       <c r="Q12">
-        <v>0.7730353488</v>
+        <v>3.360596989199333</v>
       </c>
       <c r="R12">
-        <v>6.957318139200001</v>
+        <v>30.245372902794</v>
       </c>
       <c r="S12">
-        <v>1.867667638960446E-05</v>
+        <v>7.885721346982283E-05</v>
       </c>
       <c r="T12">
-        <v>1.867667638960445E-05</v>
+        <v>7.885721346982285E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3432</v>
+        <v>1.750772333333333</v>
       </c>
       <c r="H13">
-        <v>1.0296</v>
+        <v>5.252317</v>
       </c>
       <c r="I13">
-        <v>0.0005806364563277943</v>
+        <v>0.002955548294066371</v>
       </c>
       <c r="J13">
-        <v>0.0005806364563277944</v>
+        <v>0.002955548294066372</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>191.104072</v>
       </c>
       <c r="O13">
-        <v>0.9096868262998636</v>
+        <v>0.8854525515965513</v>
       </c>
       <c r="P13">
-        <v>0.9096868262998633</v>
+        <v>0.8854525515965515</v>
       </c>
       <c r="Q13">
-        <v>21.8623058368</v>
+        <v>111.5265740149804</v>
       </c>
       <c r="R13">
-        <v>196.7607525312</v>
+        <v>1003.739166134824</v>
       </c>
       <c r="S13">
-        <v>0.0005281973351908306</v>
+        <v>0.002616997778347903</v>
       </c>
       <c r="T13">
-        <v>0.0005281973351908305</v>
+        <v>0.002616997778347904</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3432</v>
+        <v>1.750772333333333</v>
       </c>
       <c r="H14">
-        <v>1.0296</v>
+        <v>5.252317</v>
       </c>
       <c r="I14">
-        <v>0.0005806364563277943</v>
+        <v>0.002955548294066371</v>
       </c>
       <c r="J14">
-        <v>0.0005806364563277944</v>
+        <v>0.002955548294066372</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.15646</v>
+        <v>1.192498666666667</v>
       </c>
       <c r="N14">
-        <v>0.46938</v>
+        <v>3.577496</v>
       </c>
       <c r="O14">
-        <v>0.002234326030104843</v>
+        <v>0.01657580044409758</v>
       </c>
       <c r="P14">
-        <v>0.002234326030104842</v>
+        <v>0.01657580044409758</v>
       </c>
       <c r="Q14">
-        <v>0.05369707200000001</v>
+        <v>2.087793673136888</v>
       </c>
       <c r="R14">
-        <v>0.4832736480000001</v>
+        <v>18.790143058232</v>
       </c>
       <c r="S14">
-        <v>1.297331148401025E-06</v>
+        <v>4.899057872533721E-05</v>
       </c>
       <c r="T14">
-        <v>1.297331148401024E-06</v>
+        <v>4.899057872533723E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3432</v>
+        <v>1.750772333333333</v>
       </c>
       <c r="H15">
-        <v>1.0296</v>
+        <v>5.252317</v>
       </c>
       <c r="I15">
-        <v>0.0005806364563277943</v>
+        <v>0.002955548294066371</v>
       </c>
       <c r="J15">
-        <v>0.0005806364563277944</v>
+        <v>0.002955548294066372</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.716833333333334</v>
+        <v>2.73403</v>
       </c>
       <c r="N15">
-        <v>11.1505</v>
+        <v>8.20209</v>
       </c>
       <c r="O15">
-        <v>0.05307821466335176</v>
+        <v>0.03800317514387951</v>
       </c>
       <c r="P15">
-        <v>0.05307821466335174</v>
+        <v>0.03800317514387951</v>
       </c>
       <c r="Q15">
-        <v>1.2756172</v>
+        <v>4.786664082503333</v>
       </c>
       <c r="R15">
-        <v>11.4805548</v>
+        <v>43.07997674253</v>
       </c>
       <c r="S15">
-        <v>3.081914647033454E-05</v>
+        <v>0.0001123202194655986</v>
       </c>
       <c r="T15">
-        <v>3.081914647033453E-05</v>
+        <v>0.0001123202194655986</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3432</v>
+        <v>1.750772333333333</v>
       </c>
       <c r="H16">
-        <v>1.0296</v>
+        <v>5.252317</v>
       </c>
       <c r="I16">
-        <v>0.0005806364563277943</v>
+        <v>0.002955548294066371</v>
       </c>
       <c r="J16">
-        <v>0.0005806364563277944</v>
+        <v>0.002955548294066372</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.198506</v>
+        <v>2.394766666666667</v>
       </c>
       <c r="N16">
-        <v>0.595518</v>
+        <v>7.1843</v>
       </c>
       <c r="O16">
-        <v>0.002834763664399794</v>
+        <v>0.03328739518661385</v>
       </c>
       <c r="P16">
-        <v>0.002834763664399794</v>
+        <v>0.03328739518661385</v>
       </c>
       <c r="Q16">
-        <v>0.0681272592</v>
+        <v>4.192691224788889</v>
       </c>
       <c r="R16">
-        <v>0.6131453328000001</v>
+        <v>37.7342210231</v>
       </c>
       <c r="S16">
-        <v>1.645967128623889E-06</v>
+        <v>9.83825040577097E-05</v>
       </c>
       <c r="T16">
-        <v>1.645967128623889E-06</v>
+        <v>9.838250405770972E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.927094</v>
+        <v>19.34606966666667</v>
       </c>
       <c r="H17">
-        <v>65.781282</v>
+        <v>58.038209</v>
       </c>
       <c r="I17">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="J17">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.252434</v>
+        <v>1.919494</v>
       </c>
       <c r="N17">
-        <v>6.757302</v>
+        <v>5.758482</v>
       </c>
       <c r="O17">
-        <v>0.03216586934228027</v>
+        <v>0.02668107762885771</v>
       </c>
       <c r="P17">
-        <v>0.03216586934228026</v>
+        <v>0.02668107762885771</v>
       </c>
       <c r="Q17">
-        <v>49.389332046796</v>
+        <v>37.13466464874867</v>
       </c>
       <c r="R17">
-        <v>444.503988421164</v>
+        <v>334.211981838738</v>
       </c>
       <c r="S17">
-        <v>0.00119325535781596</v>
+        <v>0.0008713738025559373</v>
       </c>
       <c r="T17">
-        <v>0.00119325535781596</v>
+        <v>0.0008713738025559374</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.927094</v>
+        <v>19.34606966666667</v>
       </c>
       <c r="H18">
-        <v>65.781282</v>
+        <v>58.038209</v>
       </c>
       <c r="I18">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="J18">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>191.104072</v>
       </c>
       <c r="O18">
-        <v>0.9096868262998636</v>
+        <v>0.8854525515965513</v>
       </c>
       <c r="P18">
-        <v>0.9096868262998633</v>
+        <v>0.8854525515965515</v>
       </c>
       <c r="Q18">
-        <v>1396.785650175589</v>
+        <v>1232.370896831894</v>
       </c>
       <c r="R18">
-        <v>12571.07085158031</v>
+        <v>11091.33807148705</v>
       </c>
       <c r="S18">
-        <v>0.03374659854102229</v>
+        <v>0.02891787834060497</v>
       </c>
       <c r="T18">
-        <v>0.03374659854102229</v>
+        <v>0.02891787834060498</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.927094</v>
+        <v>19.34606966666667</v>
       </c>
       <c r="H19">
-        <v>65.781282</v>
+        <v>58.038209</v>
       </c>
       <c r="I19">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="J19">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.15646</v>
+        <v>1.192498666666667</v>
       </c>
       <c r="N19">
-        <v>0.46938</v>
+        <v>3.577496</v>
       </c>
       <c r="O19">
-        <v>0.002234326030104843</v>
+        <v>0.01657580044409758</v>
       </c>
       <c r="P19">
-        <v>0.002234326030104842</v>
+        <v>0.01657580044409758</v>
       </c>
       <c r="Q19">
-        <v>3.43071312724</v>
+        <v>23.07016228274044</v>
       </c>
       <c r="R19">
-        <v>30.87641814516</v>
+        <v>207.631460544664</v>
       </c>
       <c r="S19">
-        <v>8.28866609560525E-05</v>
+        <v>0.0005413468850208536</v>
       </c>
       <c r="T19">
-        <v>8.288666095605247E-05</v>
+        <v>0.0005413468850208538</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.927094</v>
+        <v>19.34606966666667</v>
       </c>
       <c r="H20">
-        <v>65.781282</v>
+        <v>58.038209</v>
       </c>
       <c r="I20">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="J20">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.716833333333334</v>
+        <v>2.73403</v>
       </c>
       <c r="N20">
-        <v>11.1505</v>
+        <v>8.20209</v>
       </c>
       <c r="O20">
-        <v>0.05307821466335176</v>
+        <v>0.03800317514387951</v>
       </c>
       <c r="P20">
-        <v>0.05307821466335174</v>
+        <v>0.03800317514387951</v>
       </c>
       <c r="Q20">
-        <v>81.49935388233334</v>
+        <v>52.89273485075667</v>
       </c>
       <c r="R20">
-        <v>733.4941849410001</v>
+        <v>476.03461365681</v>
       </c>
       <c r="S20">
-        <v>0.001969039398761053</v>
+        <v>0.001241140695100901</v>
       </c>
       <c r="T20">
-        <v>0.001969039398761053</v>
+        <v>0.001241140695100901</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.927094</v>
+        <v>19.34606966666667</v>
       </c>
       <c r="H21">
-        <v>65.781282</v>
+        <v>58.038209</v>
       </c>
       <c r="I21">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="J21">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.198506</v>
+        <v>2.394766666666667</v>
       </c>
       <c r="N21">
-        <v>0.595518</v>
+        <v>7.1843</v>
       </c>
       <c r="O21">
-        <v>0.002834763664399794</v>
+        <v>0.03328739518661385</v>
       </c>
       <c r="P21">
-        <v>0.002834763664399794</v>
+        <v>0.03328739518661385</v>
       </c>
       <c r="Q21">
-        <v>4.352659721564</v>
+        <v>46.32932276874445</v>
       </c>
       <c r="R21">
-        <v>39.173937494076</v>
+        <v>416.9639049187001</v>
       </c>
       <c r="S21">
-        <v>0.0001051610604610901</v>
+        <v>0.001087128658160713</v>
       </c>
       <c r="T21">
-        <v>0.0001051610604610901</v>
+        <v>0.001087128658160714</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.318524333333333</v>
+        <v>2.280919</v>
       </c>
       <c r="H22">
-        <v>3.955573</v>
+        <v>6.842757</v>
       </c>
       <c r="I22">
-        <v>0.002230720560864318</v>
+        <v>0.003850509932675564</v>
       </c>
       <c r="J22">
-        <v>0.002230720560864319</v>
+        <v>0.003850509932675565</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.252434</v>
+        <v>1.919494</v>
       </c>
       <c r="N22">
-        <v>6.757302</v>
+        <v>5.758482</v>
       </c>
       <c r="O22">
-        <v>0.03216586934228027</v>
+        <v>0.02668107762885771</v>
       </c>
       <c r="P22">
-        <v>0.03216586934228026</v>
+        <v>0.02668107762885771</v>
       </c>
       <c r="Q22">
-        <v>2.969889038227334</v>
+        <v>4.378210334986</v>
       </c>
       <c r="R22">
-        <v>26.729001344046</v>
+        <v>39.403893014874</v>
       </c>
       <c r="S22">
-        <v>7.175306609989983E-05</v>
+        <v>0.0001027357544244044</v>
       </c>
       <c r="T22">
-        <v>7.175306609989982E-05</v>
+        <v>0.0001027357544244044</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.318524333333333</v>
+        <v>2.280919</v>
       </c>
       <c r="H23">
-        <v>3.955573</v>
+        <v>6.842757</v>
       </c>
       <c r="I23">
-        <v>0.002230720560864318</v>
+        <v>0.003850509932675564</v>
       </c>
       <c r="J23">
-        <v>0.002230720560864319</v>
+        <v>0.003850509932675565</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>191.104072</v>
       </c>
       <c r="O23">
-        <v>0.9096868262998636</v>
+        <v>0.8854525515965513</v>
       </c>
       <c r="P23">
-        <v>0.9096868262998633</v>
+        <v>0.8854525515965515</v>
       </c>
       <c r="Q23">
-        <v>83.99178971036179</v>
+        <v>145.2976362673893</v>
       </c>
       <c r="R23">
-        <v>755.9261073932561</v>
+        <v>1307.678726406504</v>
       </c>
       <c r="S23">
-        <v>0.002029257107374513</v>
+        <v>0.003409443844835443</v>
       </c>
       <c r="T23">
-        <v>0.002029257107374513</v>
+        <v>0.003409443844835445</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.318524333333333</v>
+        <v>2.280919</v>
       </c>
       <c r="H24">
-        <v>3.955573</v>
+        <v>6.842757</v>
       </c>
       <c r="I24">
-        <v>0.002230720560864318</v>
+        <v>0.003850509932675564</v>
       </c>
       <c r="J24">
-        <v>0.002230720560864319</v>
+        <v>0.003850509932675565</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.15646</v>
+        <v>1.192498666666667</v>
       </c>
       <c r="N24">
-        <v>0.46938</v>
+        <v>3.577496</v>
       </c>
       <c r="O24">
-        <v>0.002234326030104843</v>
+        <v>0.01657580044409758</v>
       </c>
       <c r="P24">
-        <v>0.002234326030104842</v>
+        <v>0.01657580044409758</v>
       </c>
       <c r="Q24">
-        <v>0.2062963171933334</v>
+        <v>2.719992866274666</v>
       </c>
       <c r="R24">
-        <v>1.85666685474</v>
+        <v>24.479935796472</v>
       </c>
       <c r="S24">
-        <v>4.98415701502922E-06</v>
+        <v>6.382528425204578E-05</v>
       </c>
       <c r="T24">
-        <v>4.984157015029219E-06</v>
+        <v>6.382528425204579E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.318524333333333</v>
+        <v>2.280919</v>
       </c>
       <c r="H25">
-        <v>3.955573</v>
+        <v>6.842757</v>
       </c>
       <c r="I25">
-        <v>0.002230720560864318</v>
+        <v>0.003850509932675564</v>
       </c>
       <c r="J25">
-        <v>0.002230720560864319</v>
+        <v>0.003850509932675565</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.716833333333334</v>
+        <v>2.73403</v>
       </c>
       <c r="N25">
-        <v>11.1505</v>
+        <v>8.20209</v>
       </c>
       <c r="O25">
-        <v>0.05307821466335176</v>
+        <v>0.03800317514387951</v>
       </c>
       <c r="P25">
-        <v>0.05307821466335174</v>
+        <v>0.03800317514387951</v>
       </c>
       <c r="Q25">
-        <v>4.900735192944445</v>
+        <v>6.23610097357</v>
       </c>
       <c r="R25">
-        <v>44.10661673650001</v>
+        <v>56.12490876213</v>
       </c>
       <c r="S25">
-        <v>0.0001184026647835087</v>
+        <v>0.0001463316033647172</v>
       </c>
       <c r="T25">
-        <v>0.0001184026647835087</v>
+        <v>0.0001463316033647172</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.318524333333333</v>
+        <v>2.280919</v>
       </c>
       <c r="H26">
-        <v>3.955573</v>
+        <v>6.842757</v>
       </c>
       <c r="I26">
-        <v>0.002230720560864318</v>
+        <v>0.003850509932675564</v>
       </c>
       <c r="J26">
-        <v>0.002230720560864319</v>
+        <v>0.003850509932675565</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.198506</v>
+        <v>2.394766666666667</v>
       </c>
       <c r="N26">
-        <v>0.595518</v>
+        <v>7.1843</v>
       </c>
       <c r="O26">
-        <v>0.002834763664399794</v>
+        <v>0.03328739518661385</v>
       </c>
       <c r="P26">
-        <v>0.002834763664399794</v>
+        <v>0.03328739518661385</v>
       </c>
       <c r="Q26">
-        <v>0.2617349913126666</v>
+        <v>5.462268790566667</v>
       </c>
       <c r="R26">
-        <v>2.355614921814</v>
+        <v>49.1604191151</v>
       </c>
       <c r="S26">
-        <v>6.3235655913677E-06</v>
+        <v>0.0001281734457989534</v>
       </c>
       <c r="T26">
-        <v>6.323565591367699E-06</v>
+        <v>0.0001281734457989534</v>
       </c>
     </row>
   </sheetData>
